--- a/data/trans_dic/P55$familiar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3095317220253284</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6069945171954987</v>
+        <v>0.6069945171954985</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.125977766948865</v>
+        <v>0.1222108523876469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1693629192100488</v>
+        <v>0.1737566678911152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2375159431866345</v>
+        <v>0.2249975397012006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4994281367148828</v>
+        <v>0.5037920946878661</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2167705925027608</v>
+        <v>0.2200728445366252</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2670136509929995</v>
+        <v>0.2692664751564829</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2417252717288093</v>
+        <v>0.2427828215075948</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5707715776400527</v>
+        <v>0.568363983938689</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2056599793019669</v>
+        <v>0.2013713271212244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2554721780125918</v>
+        <v>0.2547419767771951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.254657466371666</v>
+        <v>0.2521423272513009</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5679287151853299</v>
+        <v>0.5692241642590228</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2798056601482855</v>
+        <v>0.2740710754812578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3296314564420261</v>
+        <v>0.333489561420089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.403363031325388</v>
+        <v>0.4067433586300481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6569945562448553</v>
+        <v>0.6617002615692289</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3465918755163554</v>
+        <v>0.3529172733219619</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3882932423387241</v>
+        <v>0.3952229764888393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3860934133188913</v>
+        <v>0.3800222659370009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6606092836222603</v>
+        <v>0.6598799257972655</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.304482466663386</v>
+        <v>0.3030220019356903</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3502936401847154</v>
+        <v>0.3535799479430275</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3663640145388423</v>
+        <v>0.3626102023413066</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.643157924033418</v>
+        <v>0.6456148356764745</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1915078166359252</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4468027628829714</v>
+        <v>0.4468027628829715</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05489833880904019</v>
+        <v>0.05621439393598088</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1057720717335493</v>
+        <v>0.1027013344983896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3065156433155469</v>
+        <v>0.310477525211333</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04968571523441492</v>
+        <v>0.05437212923913335</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07994512809668411</v>
+        <v>0.07757257969422136</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3688286032267131</v>
+        <v>0.3695183338677512</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03402072014819679</v>
+        <v>0.03357149241211334</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05535468425537457</v>
+        <v>0.0619061356356079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1051171667927136</v>
+        <v>0.1036205426557241</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3734999441981659</v>
+        <v>0.3729200061627333</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4414230673993266</v>
+        <v>0.4098482782925175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3020603169452971</v>
+        <v>0.3179281466488008</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.422486386306103</v>
+        <v>0.4127919040738847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5501762002790765</v>
+        <v>0.5517117371743503</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3356057866390953</v>
+        <v>0.333274159821686</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4824026747684761</v>
+        <v>0.479488449991316</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3298316790247407</v>
+        <v>0.3295416038182956</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5512416028871665</v>
+        <v>0.5603951898943405</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3204380992725011</v>
+        <v>0.311048710424474</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3368956107792453</v>
+        <v>0.315699326209702</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3065071962383368</v>
+        <v>0.307112268475728</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5185161339573022</v>
+        <v>0.5199724414604122</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2052371439526753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2307205441591588</v>
+        <v>0.2307205441591587</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0.1865851126397326</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2957549236297099</v>
+        <v>0.2957549236297098</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.08363633605391343</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0967816153637871</v>
+        <v>0.09296678641191515</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1484676234610573</v>
+        <v>0.1416528183647567</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1523184851753566</v>
+        <v>0.1604921208488506</v>
       </c>
     </row>
     <row r="12">
@@ -1020,36 +1020,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6624359571656422</v>
+        <v>0.6919867255484894</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8148629243268938</v>
+        <v>0.7811843288556136</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4238835830859008</v>
+        <v>0.446083332435164</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.6677351957756283</v>
+        <v>0.806194167020668</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5004718327776619</v>
+        <v>0.5106334046539002</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3890627610985612</v>
+        <v>0.3934781162265434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6493386208115342</v>
+        <v>0.6516761536968626</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5558617905269115</v>
+        <v>0.5742852248860139</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3985495995757123</v>
+        <v>0.3980683868893923</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.2796314783268767</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5748212267064953</v>
+        <v>0.5748212267064952</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2333796087890873</v>
@@ -1097,7 +1097,7 @@
         <v>0.2832804344144774</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5520037195542887</v>
+        <v>0.5520037195542886</v>
       </c>
     </row>
     <row r="14">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.443034642672211</v>
+        <v>0.4424749066152931</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2619580914565044</v>
+        <v>0.2587161220017504</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2232358702697837</v>
+        <v>0.223229096580025</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5305872872344521</v>
+        <v>0.5313785801346789</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2417812669624319</v>
+        <v>0.2437126669741478</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2391127998660184</v>
+        <v>0.2335336905231195</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5191905148890372</v>
+        <v>0.5182096654300291</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5684780050692628</v>
+        <v>0.5726101838078306</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3780461588707308</v>
+        <v>0.3752139108013031</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3502903037867434</v>
+        <v>0.3456704478220551</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6084532487790817</v>
+        <v>0.6105292173453555</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3341911213458532</v>
+        <v>0.3370481568766719</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3314516226215171</v>
+        <v>0.3303181974015781</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5850783092967259</v>
+        <v>0.5860083681117325</v>
       </c>
     </row>
     <row r="16">
@@ -1455,40 +1455,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12979</v>
+        <v>12591</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21022</v>
+        <v>21568</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22199</v>
+        <v>21029</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>51826</v>
+        <v>52279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>44622</v>
+        <v>45302</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66979</v>
+        <v>67544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>50414</v>
+        <v>50635</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>157997</v>
+        <v>157331</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>63524</v>
+        <v>62199</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>95794</v>
+        <v>95520</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>76913</v>
+        <v>76153</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>216145</v>
+        <v>216638</v>
       </c>
     </row>
     <row r="7">
@@ -1499,40 +1499,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28827</v>
+        <v>28236</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40916</v>
+        <v>41394</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37700</v>
+        <v>38016</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>68177</v>
+        <v>68665</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>71346</v>
+        <v>72648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>97401</v>
+        <v>99139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>80524</v>
+        <v>79258</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>182865</v>
+        <v>182663</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>94048</v>
+        <v>93597</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>131349</v>
+        <v>132582</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>110651</v>
+        <v>109517</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>244776</v>
+        <v>245711</v>
       </c>
     </row>
     <row r="8">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2420</v>
+        <v>2349</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14505</v>
+        <v>14692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1051</v>
+        <v>1150</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4160</v>
+        <v>4037</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23109</v>
+        <v>23152</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2279</v>
+        <v>2549</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7875</v>
+        <v>7763</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>41076</v>
+        <v>41012</v>
       </c>
     </row>
     <row r="11">
@@ -1679,40 +1679,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6263</v>
+        <v>5815</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6046</v>
+        <v>6363</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9665</v>
+        <v>9443</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26035</v>
+        <v>26108</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4530</v>
+        <v>4499</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10204</v>
+        <v>10143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17164</v>
+        <v>17149</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34537</v>
+        <v>35111</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8872</v>
+        <v>8612</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13869</v>
+        <v>12997</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22963</v>
+        <v>23008</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>57024</v>
+        <v>57184</v>
       </c>
     </row>
     <row r="12">
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1604</v>
+        <v>1541</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2337</v>
+        <v>2230</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4922</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="15">
@@ -1855,36 +1855,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6204</v>
+        <v>6480</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>2028</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4170</v>
+        <v>3998</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7025</v>
+        <v>7393</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4515</v>
+        <v>5451</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7879</v>
+        <v>8039</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8146</v>
+        <v>8238</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4190</v>
+        <v>4205</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6604</v>
+        <v>6823</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12880</v>
+        <v>12864</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74282</v>
+        <v>74188</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>72410</v>
+        <v>71514</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59685</v>
+        <v>59683</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>188470</v>
+        <v>188752</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>102174</v>
+        <v>102990</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>92972</v>
+        <v>90803</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>271473</v>
+        <v>270960</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>95314</v>
+        <v>96007</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>104500</v>
+        <v>103717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>93655</v>
+        <v>92419</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>216129</v>
+        <v>216867</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>141225</v>
+        <v>142433</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>128875</v>
+        <v>128435</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>305924</v>
+        <v>306410</v>
       </c>
     </row>
     <row r="20">
